--- a/Empresas_pequeñas_c1.xlsx
+++ b/Empresas_pequeñas_c1.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\rodrigo.guarneros\Documents\2022\pequeños operadores\BiasAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5317642E-C113-4450-BDE7-F69963CFE336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1057B5B9-B4C3-4BC1-9AA0-A208CE9C4088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Empresas_pequeñas_c1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Empresas_pequeñas_c1!$A$1:$E$43</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="86">
   <si>
     <t>CONCESIONARIO</t>
   </si>
@@ -235,9 +238,6 @@
     <t>CABLEREGION, S.A. DE C.V.</t>
   </si>
   <si>
-    <t>OTROS</t>
-  </si>
-  <si>
     <t>TV OJO CALIENTE, S.A. DE C.V.</t>
   </si>
   <si>
@@ -275,12 +275,21 @@
   </si>
   <si>
     <t>TVDIG</t>
+  </si>
+  <si>
+    <t>CABLEREGION</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -714,8 +723,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -758,52 +768,54 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="43">
+    <cellStyle name="20% - Énfasis1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="24" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="28" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="32" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="36" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="25" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="29" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="33" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="37" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="41" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="22" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="26" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="30" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="38" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="42" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="7" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="3" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="6" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="23" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="27" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="31" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="35" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="8" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="15" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="2" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="4" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="5" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1117,742 +1129,755 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="11.36328125" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>109</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>57912579.93</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="1">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>56882777.339999899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>119</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3">
+      <c r="E4" s="1">
         <v>56882777.339999899</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>90</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>56882777.339999899</v>
-      </c>
-    </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>131</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>54810014.390000001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>94</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>43442489.729999997</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>43316604.869999997</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>32</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>41293042</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>89</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>41185567.119999997</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>105</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>37452991.159999996</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>33446465.010000002</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>30996417.969999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>92</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>30681112.210000001</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>31</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>25732892.399999999</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>118</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>24273600.390000001</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>43</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>23760000</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>22951649.170000002</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>72</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>22882396.8699999</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>83</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>22748620.759999901</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>81</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>22415416.379999999</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>113</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>20978416</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>114</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>20575592</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>120</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>15499108.949999999</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>129</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>14530785</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>134</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>14324655.0599999</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>111</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>13975584.41</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>3</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>13327321.140000001</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>85</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>13240100.65</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>75</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>13182166.34</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>24</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>12929306</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>51</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>12923384.75</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>16</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>12430338.43</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>22</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>12345586.210000001</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>79</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>11666600.699999999</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>68</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>11100067.82</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>17</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" s="1">
+        <v>10625579.42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="1">
+        <v>127</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D36" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36">
-        <v>10625579.42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>127</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="C37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="1">
+        <v>8419766.9900000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D37" t="s">
+      <c r="C38" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E37">
-        <v>8419766.9900000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>40</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="D38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="1">
+        <v>8211222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="1">
+        <v>106</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C38" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" t="s">
-        <v>74</v>
-      </c>
-      <c r="E38">
-        <v>8211222</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>106</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="C39" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="1">
+        <v>7994366.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="1">
+        <v>108</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D39" t="s">
-        <v>76</v>
-      </c>
-      <c r="E39">
-        <v>7994366.25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>108</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C40" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="1">
+        <v>7884565.2599999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="1">
+        <v>56</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D40" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40">
-        <v>7884565.2599999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>56</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="C41" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" s="1">
+        <v>7300991.6599999899</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>99</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D41" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41">
-        <v>7300991.6599999899</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>99</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="C42" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="1">
+        <v>6533160.4199999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>84</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D42" t="s">
-        <v>82</v>
-      </c>
-      <c r="E42">
-        <v>6533160.4199999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>84</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="C43" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C43" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43">
+      <c r="D43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="1">
         <v>6023883.0700000003</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E43">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E43">
+      <sortCondition descending="1" ref="E2:E43"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Empresas_pequeñas_c1.xlsx
+++ b/Empresas_pequeñas_c1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\rodrigo.guarneros\Documents\2022\pequeños operadores\BiasAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1057B5B9-B4C3-4BC1-9AA0-A208CE9C4088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C0BC3D-2FA5-4934-829F-4276A1668398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Empresas_pequeñas_c1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="128">
   <si>
     <t>CONCESIONARIO</t>
   </si>
@@ -43,12 +43,6 @@
     <t>TELECABLE MERIDA</t>
   </si>
   <si>
-    <t>TELESISTEMAS PENINSULARES, S.A. DE C.V.</t>
-  </si>
-  <si>
-    <t>TELESISTEMAS PENINSULARES</t>
-  </si>
-  <si>
     <t>ROBERTO ANTONIO MALDONADO GUTIERREZ</t>
   </si>
   <si>
@@ -88,12 +82,6 @@
     <t>RBACATV</t>
   </si>
   <si>
-    <t>TELECABLE DE CAMPECHE, S.A. DE C.V.</t>
-  </si>
-  <si>
-    <t>TELECABLE DE CAMPECHE</t>
-  </si>
-  <si>
     <t>COMRELOADED, S.A.P.I. DE C.V.</t>
   </si>
   <si>
@@ -121,12 +109,6 @@
     <t>LINK TE CONECTAMOS</t>
   </si>
   <si>
-    <t>GILAT SATELLITE NETWORKS MEXICO, S.A. DE C.V.</t>
-  </si>
-  <si>
-    <t>GILAT</t>
-  </si>
-  <si>
     <t>CABLEVISION DE APATZINGAN, S.A. DE C.V.</t>
   </si>
   <si>
@@ -175,12 +157,6 @@
     <t>SUPERCOM</t>
   </si>
   <si>
-    <t>TELECABLE DE TICUL, S.A. DE C.V.</t>
-  </si>
-  <si>
-    <t>TELECABLE DE TICUL</t>
-  </si>
-  <si>
     <t>AIRE CABLE, S.A. DE C.V.</t>
   </si>
   <si>
@@ -253,12 +229,6 @@
     <t>TELECABLE DE COAHUAYANA</t>
   </si>
   <si>
-    <t>TELECABLE DE CUERNAVACA, S.A. DE C.V.</t>
-  </si>
-  <si>
-    <t>TELECABLE DE CUERNAVACA</t>
-  </si>
-  <si>
     <t>IBO CELL, S.A.P.I. DE C.V.</t>
   </si>
   <si>
@@ -277,19 +247,172 @@
     <t>TVDIG</t>
   </si>
   <si>
-    <t>CABLEREGION</t>
-  </si>
-  <si>
-    <t>ID</t>
+    <t>COMUNICACION B15, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>COMUNICACION B15</t>
+  </si>
+  <si>
+    <t>TELECABLE</t>
+  </si>
+  <si>
+    <t>TELEVISION POR CABLE DE TAMAZULA, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>SCT</t>
+  </si>
+  <si>
+    <t>ALESTRA SERVICIOS MOVILES, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>ALESTRA</t>
+  </si>
+  <si>
+    <t>SIHI MEXICO, S. DE R.L. DE C.V.</t>
+  </si>
+  <si>
+    <t>SIHI MEXICO</t>
+  </si>
+  <si>
+    <t>TELECABLE DE RIOVERDE, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>CABLE RV</t>
+  </si>
+  <si>
+    <t>TELECABLE DE RIOVERDE</t>
+  </si>
+  <si>
+    <t>LAREDONET, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>LAREDONET</t>
+  </si>
+  <si>
+    <t>TELECABLE DE TAMAYO, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>TELECABLE DE TAMAYO</t>
+  </si>
+  <si>
+    <t>DIVERSICABLE, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>DIVERSICABLE</t>
+  </si>
+  <si>
+    <t>SPACENET COMMUNICATIONS SERVICES DE MEXICO, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>SPACENET</t>
+  </si>
+  <si>
+    <t>CABLE DEL VALLE DE TOLUCA, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>CABLE DEL VALLE DE TOLUCA</t>
+  </si>
+  <si>
+    <t>TELEVISION DE PEDRO ESCOBEDO, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>TELEVISION DE PEDRO ESCOBEDO</t>
+  </si>
+  <si>
+    <t>COSMORED PUERTO VALLARTA, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>COSMORED PUERTO VALLARTA</t>
+  </si>
+  <si>
+    <t>COSMORED</t>
+  </si>
+  <si>
+    <t>CABLE DIVERSION, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>CABLE DIVERSION</t>
+  </si>
+  <si>
+    <t>OTROS</t>
+  </si>
+  <si>
+    <t>TELECOMUNICACIONES DE CERRITOS, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>TELECOMUNICACIONES DE CERRITOS</t>
+  </si>
+  <si>
+    <t>COSMORED NUEVO VALLARTA, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>ALEJANDRO MELGAREJO CORTES</t>
+  </si>
+  <si>
+    <t>CABLE WEB, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>TELEWEB</t>
+  </si>
+  <si>
+    <t>PROTOKOL TELECOMUNICACIONES, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>PROTOKOL TELECOMUNICACIONES</t>
+  </si>
+  <si>
+    <t>ALEJANDRO ALFONSO MELGAREJO ALTAMIRANO</t>
+  </si>
+  <si>
+    <t>COSMORED LA HUERTA, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>COSMORED LA HUERTA</t>
+  </si>
+  <si>
+    <t>GENY MARGARITA MOGUEL REJON</t>
+  </si>
+  <si>
+    <t>LUMENET COMUNICACIONES, S. DE R.L. DE C.V.</t>
+  </si>
+  <si>
+    <t>LUMENET COMUNICACIONES</t>
+  </si>
+  <si>
+    <t>AGREGADORA DE INTELIGENCIA EN NEGOCIOS TECNOLOGICOS, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>ADDINTELI</t>
+  </si>
+  <si>
+    <t>ANKLA, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>ANKLA</t>
+  </si>
+  <si>
+    <t>HERMOVISION, S. DE R.L. DE C.V.</t>
+  </si>
+  <si>
+    <t>HERMOVISION</t>
+  </si>
+  <si>
+    <t>EYCO DE LOS ALTOS, S. DE R.L. DE C.V.</t>
+  </si>
+  <si>
+    <t>EYCO DE LOS ALTOS</t>
+  </si>
+  <si>
+    <t>NATALIA CHAREEVA</t>
+  </si>
+  <si>
+    <t>NET LINK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -723,9 +846,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -768,54 +890,52 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
-    <cellStyle name="20% - Énfasis1" xfId="20" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="24" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="28" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="32" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="36" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="40" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="21" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="25" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="29" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="33" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="37" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="41" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="22" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="26" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="30" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="34" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="38" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="42" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="7" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="12" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="14" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="13" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="3" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="6" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="23" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="27" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="31" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="35" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="10" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="8" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
-    <cellStyle name="Neutral" xfId="9" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="42">
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="16" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="11" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="15" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="17" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="2" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="4" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="5" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1126,11 +1246,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1142,738 +1262,1109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>153</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>57912579.93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>56882777.339999899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>186</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>54810014.390000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5">
+        <v>48592969.18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>133</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>43442489.729999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>43316604.869999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8">
+        <v>41293042</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>41185567.119999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>33446465.010000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>30996417.969999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>129</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>30681112.210000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>175</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13">
+        <v>28663065.780000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14">
+        <v>27463169.379999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>25732892.399999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>167</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>24273600.390000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17">
+        <v>22951649.170000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>104</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <v>22882396.8699999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>113</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19">
+        <v>22415416.379999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>135</v>
+      </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20">
+        <v>22376787.309999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>154</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="E21">
+        <v>21243686</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>159</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22">
+        <v>20978416</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>161</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23">
+        <v>20575592</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>97</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24">
+        <v>20058416.809999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>155</v>
+      </c>
+      <c r="B25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25">
+        <v>19635213.800000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26">
+        <v>19355995.640000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>141</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27">
+        <v>16624931</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28">
+        <v>16624450.52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>169</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>15499108.949999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>184</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30">
+        <v>14530785</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>189</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31">
+        <v>14324655.0599999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>172</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32">
+        <v>13957520</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33">
+        <v>13327321.140000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>118</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34">
+        <v>13240100.65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>107</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35">
+        <v>13182166.34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36">
+        <v>12929306</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37">
+        <v>12923384.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>26</v>
+      </c>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38">
+        <v>12430338.43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39">
+        <v>12345586.210000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40">
+        <v>11930828</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>111</v>
+      </c>
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41">
+        <v>11666600.699999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>98</v>
+      </c>
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42">
+        <v>11100067.82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43">
+        <v>10964574.060000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>27</v>
+      </c>
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44">
+        <v>10625579.42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>163</v>
+      </c>
+      <c r="B45" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45">
+        <v>9344133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46">
+        <v>8603178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>181</v>
+      </c>
+      <c r="B47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47">
+        <v>8419766.9900000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>63</v>
+      </c>
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48">
+        <v>8211222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>149</v>
+      </c>
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49">
+        <v>7994366.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50">
+        <v>7759103.3999999901</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>24</v>
+      </c>
+      <c r="B51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" t="s">
+        <v>109</v>
+      </c>
+      <c r="E51">
+        <v>7400411.2300000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>121</v>
+      </c>
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52">
+        <v>7313137.8599999901</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>82</v>
+      </c>
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53">
+        <v>7300991.6599999899</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>139</v>
+      </c>
+      <c r="B54" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" t="s">
+        <v>71</v>
+      </c>
+      <c r="D54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E54">
+        <v>6533160.4199999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" t="s">
+        <v>112</v>
+      </c>
+      <c r="E55">
+        <v>6246156.1999999899</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>48</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" t="s">
+        <v>100</v>
+      </c>
+      <c r="E56">
+        <v>6189105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>66</v>
+      </c>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57">
+        <v>6044162.8699999899</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58">
+        <v>6023883.0700000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>100</v>
+      </c>
+      <c r="B59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59">
+        <v>5965897.3499999996</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>109</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1">
-        <v>57912579.93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>90</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>56882777.339999899</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
+      <c r="B60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1">
-        <v>56882777.339999899</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>131</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="D60" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60">
+        <v>5534961</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1">
-        <v>54810014.390000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>94</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1">
-        <v>43442489.729999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1">
-        <v>43316604.869999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="B61" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" t="s">
+        <v>121</v>
+      </c>
+      <c r="E61">
+        <v>5437985</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>77</v>
+      </c>
+      <c r="B62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" t="s">
+        <v>123</v>
+      </c>
+      <c r="E62">
+        <v>4917794</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" t="s">
+        <v>125</v>
+      </c>
+      <c r="E63">
+        <v>4796982.79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>112</v>
+      </c>
+      <c r="B64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" t="s">
+        <v>127</v>
+      </c>
+      <c r="E64">
+        <v>4756865</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>116</v>
+      </c>
+      <c r="B65" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1">
-        <v>41293042</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>89</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1">
-        <v>41185567.119999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>105</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="1">
-        <v>37452991.159999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>27</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1">
-        <v>33446465.010000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="1">
-        <v>30996417.969999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>92</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="1">
-        <v>30681112.210000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>31</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="1">
-        <v>25732892.399999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>118</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="1">
-        <v>24273600.390000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>43</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="D65" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="1">
-        <v>23760000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>18</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="1">
-        <v>22951649.170000002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>72</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="1">
-        <v>22882396.8699999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>83</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="1">
-        <v>22748620.759999901</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>81</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="1">
-        <v>22415416.379999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>113</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="1">
-        <v>20978416</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>114</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E22" s="1">
-        <v>20575592</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>120</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="1">
-        <v>15499108.949999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>129</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="1">
-        <v>14530785</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>134</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="1">
-        <v>14324655.0599999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>111</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="1">
-        <v>13975584.41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>3</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="1">
-        <v>13327321.140000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>85</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="1">
-        <v>13240100.65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>75</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="1">
-        <v>13182166.34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>24</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="1">
-        <v>12929306</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>51</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E31" s="1">
-        <v>12923384.75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>16</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" s="1">
-        <v>12430338.43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>22</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="1">
-        <v>12345586.210000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>79</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="1">
-        <v>11666600.699999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>68</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="1">
-        <v>11100067.82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>17</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E36" s="1">
-        <v>10625579.42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>127</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E37" s="1">
-        <v>8419766.9900000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>40</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E38" s="1">
-        <v>8211222</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>106</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="1">
-        <v>7994366.25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>108</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="1">
-        <v>7884565.2599999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>56</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E41" s="1">
-        <v>7300991.6599999899</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>99</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E42" s="1">
-        <v>6533160.4199999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>84</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E43" s="1">
-        <v>6023883.0700000003</v>
+      <c r="E65">
+        <v>4720179.6900000004</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E43">
+  <autoFilter ref="A1:E43" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E43">
       <sortCondition descending="1" ref="E2:E43"/>
     </sortState>
